--- a/Code/Results/Cases/Case_2_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_123/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007880019272243</v>
+        <v>1.031612165222644</v>
       </c>
       <c r="D2">
-        <v>1.022936554731414</v>
+        <v>1.035000385883583</v>
       </c>
       <c r="E2">
-        <v>1.019532888118037</v>
+        <v>1.05286190050676</v>
       </c>
       <c r="F2">
-        <v>1.026501485276948</v>
+        <v>1.058456895271841</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044819080773897</v>
+        <v>1.036942804332752</v>
       </c>
       <c r="J2">
-        <v>1.029827567961132</v>
+        <v>1.03674693247731</v>
       </c>
       <c r="K2">
-        <v>1.034085333952488</v>
+        <v>1.037798245945326</v>
       </c>
       <c r="L2">
-        <v>1.030726643989282</v>
+        <v>1.055609461016022</v>
       </c>
       <c r="M2">
-        <v>1.037603557472075</v>
+        <v>1.061189078089102</v>
       </c>
       <c r="N2">
-        <v>1.031290041230512</v>
+        <v>1.038219232037962</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011645953585553</v>
+        <v>1.032403668127144</v>
       </c>
       <c r="D3">
-        <v>1.025569670470107</v>
+        <v>1.03557408002459</v>
       </c>
       <c r="E3">
-        <v>1.023975702662072</v>
+        <v>1.053896420698908</v>
       </c>
       <c r="F3">
-        <v>1.031027234718028</v>
+        <v>1.059502416974296</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045849519639062</v>
+        <v>1.037114613741736</v>
       </c>
       <c r="J3">
-        <v>1.031824095571166</v>
+        <v>1.037181187676111</v>
       </c>
       <c r="K3">
-        <v>1.035885510823638</v>
+        <v>1.038181871538795</v>
       </c>
       <c r="L3">
-        <v>1.034310732121572</v>
+        <v>1.056456343054939</v>
       </c>
       <c r="M3">
-        <v>1.041277930611344</v>
+        <v>1.062048049716418</v>
       </c>
       <c r="N3">
-        <v>1.033289404138756</v>
+        <v>1.038654103928957</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014036953791719</v>
+        <v>1.032916272654825</v>
       </c>
       <c r="D4">
-        <v>1.027244242274499</v>
+        <v>1.035945669075827</v>
       </c>
       <c r="E4">
-        <v>1.026802439223262</v>
+        <v>1.054567097668239</v>
       </c>
       <c r="F4">
-        <v>1.033905422822165</v>
+        <v>1.060180078957954</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046495359490667</v>
+        <v>1.037224845135928</v>
       </c>
       <c r="J4">
-        <v>1.033088283133938</v>
+        <v>1.037461951801176</v>
       </c>
       <c r="K4">
-        <v>1.03702460739436</v>
+        <v>1.038429771178846</v>
       </c>
       <c r="L4">
-        <v>1.036587796142743</v>
+        <v>1.057004997429771</v>
       </c>
       <c r="M4">
-        <v>1.043611161401661</v>
+        <v>1.062604394332658</v>
       </c>
       <c r="N4">
-        <v>1.03455538699287</v>
+        <v>1.038935266771282</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015031496325178</v>
+        <v>1.033131877579069</v>
       </c>
       <c r="D5">
-        <v>1.027941418398704</v>
+        <v>1.03610197219917</v>
       </c>
       <c r="E5">
-        <v>1.027979705615496</v>
+        <v>1.054849354002281</v>
       </c>
       <c r="F5">
-        <v>1.035103797719737</v>
+        <v>1.060465239698899</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046761958280826</v>
+        <v>1.03727096056853</v>
       </c>
       <c r="J5">
-        <v>1.033613284665251</v>
+        <v>1.037579929350078</v>
       </c>
       <c r="K5">
-        <v>1.037497468541933</v>
+        <v>1.038533907669481</v>
       </c>
       <c r="L5">
-        <v>1.03753533488862</v>
+        <v>1.057235809983088</v>
       </c>
       <c r="M5">
-        <v>1.044581780394603</v>
+        <v>1.062838408032877</v>
       </c>
       <c r="N5">
-        <v>1.035081134086577</v>
+        <v>1.039053411861836</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015197870232759</v>
+        <v>1.033168084763898</v>
       </c>
       <c r="D6">
-        <v>1.02805808297167</v>
+        <v>1.036128221240632</v>
       </c>
       <c r="E6">
-        <v>1.028176734931451</v>
+        <v>1.054896763862814</v>
       </c>
       <c r="F6">
-        <v>1.035304340879687</v>
+        <v>1.060513135337692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046806436061569</v>
+        <v>1.037278690290889</v>
       </c>
       <c r="J6">
-        <v>1.033701060499531</v>
+        <v>1.037599735002065</v>
       </c>
       <c r="K6">
-        <v>1.037576515429166</v>
+        <v>1.038551387891131</v>
       </c>
       <c r="L6">
-        <v>1.037693869182428</v>
+        <v>1.057274573678614</v>
       </c>
       <c r="M6">
-        <v>1.044744158956935</v>
+        <v>1.062877707345514</v>
       </c>
       <c r="N6">
-        <v>1.035169034572609</v>
+        <v>1.039073245640121</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014050284270347</v>
+        <v>1.032919153163898</v>
       </c>
       <c r="D7">
-        <v>1.027253584511118</v>
+        <v>1.035947757265676</v>
       </c>
       <c r="E7">
-        <v>1.026818212971836</v>
+        <v>1.05457086799905</v>
       </c>
       <c r="F7">
-        <v>1.033921480663178</v>
+        <v>1.060183888223804</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046498940973258</v>
+        <v>1.037225462220785</v>
       </c>
       <c r="J7">
-        <v>1.033095323406812</v>
+        <v>1.037463528443156</v>
       </c>
       <c r="K7">
-        <v>1.037030949232955</v>
+        <v>1.03843116297348</v>
       </c>
       <c r="L7">
-        <v>1.036600495035868</v>
+        <v>1.057008080937772</v>
       </c>
       <c r="M7">
-        <v>1.043624170776124</v>
+        <v>1.062607520739742</v>
       </c>
       <c r="N7">
-        <v>1.034562437263739</v>
+        <v>1.038936845652275</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009162425321825</v>
+        <v>1.031879563379807</v>
       </c>
       <c r="D8">
-        <v>1.023832594068294</v>
+        <v>1.035194190793469</v>
       </c>
       <c r="E8">
-        <v>1.021044563841029</v>
+        <v>1.053211257169191</v>
       </c>
       <c r="F8">
-        <v>1.028041652389333</v>
+        <v>1.058809997577962</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045171714339898</v>
+        <v>1.037001062548586</v>
       </c>
       <c r="J8">
-        <v>1.030508142926454</v>
+        <v>1.036893737608318</v>
       </c>
       <c r="K8">
-        <v>1.034699131888163</v>
+        <v>1.037927962050159</v>
       </c>
       <c r="L8">
-        <v>1.031946823159302</v>
+        <v>1.055895530478439</v>
       </c>
       <c r="M8">
-        <v>1.038854719997067</v>
+        <v>1.061479260664259</v>
       </c>
       <c r="N8">
-        <v>1.031971582690345</v>
+        <v>1.038366245649095</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000182796784475</v>
+        <v>1.030051183035836</v>
       </c>
       <c r="D9">
-        <v>1.017571836968275</v>
+        <v>1.033869220628918</v>
       </c>
       <c r="E9">
-        <v>1.010483060798355</v>
+        <v>1.050825248334661</v>
       </c>
       <c r="F9">
-        <v>1.01727571987594</v>
+        <v>1.05639780569454</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042668146394773</v>
+        <v>1.036598463863935</v>
       </c>
       <c r="J9">
-        <v>1.025729101676939</v>
+        <v>1.035887995535379</v>
       </c>
       <c r="K9">
-        <v>1.030386114293826</v>
+        <v>1.037038764986163</v>
       </c>
       <c r="L9">
-        <v>1.023408316841509</v>
+        <v>1.053940210764853</v>
       </c>
       <c r="M9">
-        <v>1.030094593524407</v>
+        <v>1.059495248109468</v>
       </c>
       <c r="N9">
-        <v>1.027185754654093</v>
+        <v>1.037359075307053</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9939266743363703</v>
+        <v>1.028834715474509</v>
       </c>
       <c r="D10">
-        <v>1.01322889330573</v>
+        <v>1.032987961035508</v>
       </c>
       <c r="E10">
-        <v>1.003152620314337</v>
+        <v>1.049241227628437</v>
       </c>
       <c r="F10">
-        <v>1.009796781511931</v>
+        <v>1.054795648821491</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040881504476378</v>
+        <v>1.036325275773024</v>
       </c>
       <c r="J10">
-        <v>1.022383344086752</v>
+        <v>1.035216424661276</v>
       </c>
       <c r="K10">
-        <v>1.027363334463306</v>
+        <v>1.03644435590149</v>
       </c>
       <c r="L10">
-        <v>1.017465185577039</v>
+        <v>1.052640174500714</v>
       </c>
       <c r="M10">
-        <v>1.023991376609477</v>
+        <v>1.058175410034875</v>
       </c>
       <c r="N10">
-        <v>1.023835245704363</v>
+        <v>1.036686550725279</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9911481756820339</v>
+        <v>1.028308572834153</v>
       </c>
       <c r="D11">
-        <v>1.011305196033875</v>
+        <v>1.032606873564321</v>
       </c>
       <c r="E11">
-        <v>0.9999028813660494</v>
+        <v>1.048556919978159</v>
       </c>
       <c r="F11">
-        <v>1.006479710928986</v>
+        <v>1.054103327616705</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040078349340421</v>
+        <v>1.036205854193634</v>
       </c>
       <c r="J11">
-        <v>1.020893894404635</v>
+        <v>1.034925385540147</v>
       </c>
       <c r="K11">
-        <v>1.02601701633962</v>
+        <v>1.036186601752237</v>
       </c>
       <c r="L11">
-        <v>1.014826629434635</v>
+        <v>1.052078088740697</v>
       </c>
       <c r="M11">
-        <v>1.021280455278404</v>
+        <v>1.057604591491191</v>
       </c>
       <c r="N11">
-        <v>1.022343680832856</v>
+        <v>1.036395098295215</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9901051608371927</v>
+        <v>1.028113231107927</v>
       </c>
       <c r="D12">
-        <v>1.010583885892085</v>
+        <v>1.032465398051889</v>
       </c>
       <c r="E12">
-        <v>0.9986837908397835</v>
+        <v>1.048302976610783</v>
       </c>
       <c r="F12">
-        <v>1.005235142862422</v>
+        <v>1.053846383634923</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039775436890748</v>
+        <v>1.03616132663969</v>
       </c>
       <c r="J12">
-        <v>1.020334272907646</v>
+        <v>1.034817245013729</v>
       </c>
       <c r="K12">
-        <v>1.025511086157638</v>
+        <v>1.036090805724007</v>
       </c>
       <c r="L12">
-        <v>1.013836250857988</v>
+        <v>1.05186943195121</v>
       </c>
       <c r="M12">
-        <v>1.020262728413327</v>
+        <v>1.05739266725332</v>
       </c>
       <c r="N12">
-        <v>1.021783264609151</v>
+        <v>1.036286804196845</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9903293953586522</v>
+        <v>1.028155128424842</v>
       </c>
       <c r="D13">
-        <v>1.010738920048504</v>
+        <v>1.032495741503042</v>
       </c>
       <c r="E13">
-        <v>0.9989458432159574</v>
+        <v>1.048357437495108</v>
       </c>
       <c r="F13">
-        <v>1.005502681619574</v>
+        <v>1.053901489246954</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039840622605114</v>
+        <v>1.036170885591809</v>
       </c>
       <c r="J13">
-        <v>1.020454606332122</v>
+        <v>1.034840443118861</v>
       </c>
       <c r="K13">
-        <v>1.025619878260745</v>
+        <v>1.036111356753237</v>
       </c>
       <c r="L13">
-        <v>1.014049165211759</v>
+        <v>1.051914183784196</v>
       </c>
       <c r="M13">
-        <v>1.020481530455206</v>
+        <v>1.057438121036041</v>
       </c>
       <c r="N13">
-        <v>1.021903768920893</v>
+        <v>1.036310035245948</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9910621863037681</v>
+        <v>1.028292423959164</v>
       </c>
       <c r="D14">
-        <v>1.011245711941266</v>
+        <v>1.032595177566985</v>
       </c>
       <c r="E14">
-        <v>0.9998023594187007</v>
+        <v>1.048535924059503</v>
       </c>
       <c r="F14">
-        <v>1.006377092611489</v>
+        <v>1.0540820841559</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040053404925492</v>
+        <v>1.03620217697743</v>
       </c>
       <c r="J14">
-        <v>1.020847767475951</v>
+        <v>1.034916447331175</v>
       </c>
       <c r="K14">
-        <v>1.025975316625109</v>
+        <v>1.036178684331409</v>
       </c>
       <c r="L14">
-        <v>1.014744977669751</v>
+        <v>1.052060838511608</v>
       </c>
       <c r="M14">
-        <v>1.021196552520264</v>
+        <v>1.057587071656743</v>
       </c>
       <c r="N14">
-        <v>1.022297488398642</v>
+        <v>1.036386147392961</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9915122154341046</v>
+        <v>1.028377028384413</v>
       </c>
       <c r="D15">
-        <v>1.011557058387689</v>
+        <v>1.032656453705975</v>
       </c>
       <c r="E15">
-        <v>1.000328478525605</v>
+        <v>1.048645927218129</v>
       </c>
       <c r="F15">
-        <v>1.006914174954317</v>
+        <v>1.054193383154421</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040183894991046</v>
+        <v>1.036221434248689</v>
       </c>
       <c r="J15">
-        <v>1.021089154528956</v>
+        <v>1.034963271345178</v>
       </c>
       <c r="K15">
-        <v>1.026193532138709</v>
+        <v>1.036220159863991</v>
       </c>
       <c r="L15">
-        <v>1.015172309709078</v>
+        <v>1.052151214170704</v>
       </c>
       <c r="M15">
-        <v>1.021635657799467</v>
+        <v>1.057678858753624</v>
       </c>
       <c r="N15">
-        <v>1.02253921824895</v>
+        <v>1.036433037902435</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9941095661258268</v>
+        <v>1.028869646515414</v>
       </c>
       <c r="D16">
-        <v>1.013355629864504</v>
+        <v>1.033013263311046</v>
       </c>
       <c r="E16">
-        <v>1.003366648643608</v>
+        <v>1.049286676328508</v>
       </c>
       <c r="F16">
-        <v>1.010015213534158</v>
+        <v>1.054841625981109</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040934172644969</v>
+        <v>1.036333177647998</v>
       </c>
       <c r="J16">
-        <v>1.022481314596758</v>
+        <v>1.035235734911358</v>
       </c>
       <c r="K16">
-        <v>1.027451877686714</v>
+        <v>1.036461454470187</v>
       </c>
       <c r="L16">
-        <v>1.017638882230234</v>
+        <v>1.052677496025656</v>
       </c>
       <c r="M16">
-        <v>1.024169810791057</v>
+        <v>1.058213307796066</v>
       </c>
       <c r="N16">
-        <v>1.023933355343732</v>
+        <v>1.03670588839813</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9957198453430198</v>
+        <v>1.029178813477369</v>
       </c>
       <c r="D17">
-        <v>1.014472076897586</v>
+        <v>1.033237216590038</v>
       </c>
       <c r="E17">
-        <v>1.005251735168201</v>
+        <v>1.049689026054351</v>
       </c>
       <c r="F17">
-        <v>1.011938915890586</v>
+        <v>1.055248633414312</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041396794553805</v>
+        <v>1.036402969403839</v>
       </c>
       <c r="J17">
-        <v>1.023343503075788</v>
+        <v>1.035406579421274</v>
       </c>
       <c r="K17">
-        <v>1.028231028721452</v>
+        <v>1.036612713620499</v>
       </c>
       <c r="L17">
-        <v>1.019168304799297</v>
+        <v>1.053007843865707</v>
       </c>
       <c r="M17">
-        <v>1.025740801542532</v>
+        <v>1.058548736344132</v>
       </c>
       <c r="N17">
-        <v>1.024796768229296</v>
+        <v>1.036876975526847</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.996652418611255</v>
+        <v>1.029359202720999</v>
       </c>
       <c r="D18">
-        <v>1.015119135441334</v>
+        <v>1.03336789324196</v>
       </c>
       <c r="E18">
-        <v>1.006344023858543</v>
+        <v>1.049923862584152</v>
       </c>
       <c r="F18">
-        <v>1.013053436947136</v>
+        <v>1.055486171216767</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041663795643556</v>
+        <v>1.036443568749121</v>
       </c>
       <c r="J18">
-        <v>1.023842492811661</v>
+        <v>1.0355062064692</v>
       </c>
       <c r="K18">
-        <v>1.028681898255301</v>
+        <v>1.036700904645475</v>
       </c>
       <c r="L18">
-        <v>1.020054142392808</v>
+        <v>1.053200611015508</v>
       </c>
       <c r="M18">
-        <v>1.026650591920871</v>
+        <v>1.058744451687981</v>
       </c>
       <c r="N18">
-        <v>1.025296466587829</v>
+        <v>1.036976744056608</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9969692846192419</v>
+        <v>1.029420720477576</v>
       </c>
       <c r="D19">
-        <v>1.015339070571862</v>
+        <v>1.03341245877803</v>
       </c>
       <c r="E19">
-        <v>1.006715254850859</v>
+        <v>1.050003961648869</v>
       </c>
       <c r="F19">
-        <v>1.013432199500957</v>
+        <v>1.05556718871579</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041754359031314</v>
+        <v>1.036457393569068</v>
       </c>
       <c r="J19">
-        <v>1.024011979713129</v>
+        <v>1.035540172670764</v>
       </c>
       <c r="K19">
-        <v>1.028835029723572</v>
+        <v>1.036730969387124</v>
       </c>
       <c r="L19">
-        <v>1.020355145321248</v>
+        <v>1.053266353316943</v>
       </c>
       <c r="M19">
-        <v>1.026959712712596</v>
+        <v>1.058811196649589</v>
       </c>
       <c r="N19">
-        <v>1.025466194180138</v>
+        <v>1.037010758494075</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9955477716489128</v>
+        <v>1.029145636841381</v>
       </c>
       <c r="D20">
-        <v>1.014352723499485</v>
+        <v>1.033213183494805</v>
       </c>
       <c r="E20">
-        <v>1.005050237612837</v>
+        <v>1.049645841930366</v>
       </c>
       <c r="F20">
-        <v>1.011733305468893</v>
+        <v>1.055204951163913</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041347454240256</v>
+        <v>1.036395492679467</v>
       </c>
       <c r="J20">
-        <v>1.023251404668786</v>
+        <v>1.035388251862012</v>
       </c>
       <c r="K20">
-        <v>1.028147806721583</v>
+        <v>1.036596488648349</v>
       </c>
       <c r="L20">
-        <v>1.019004862180378</v>
+        <v>1.052972392300208</v>
       </c>
       <c r="M20">
-        <v>1.025572929458091</v>
+        <v>1.058512741248231</v>
       </c>
       <c r="N20">
-        <v>1.024704539031992</v>
+        <v>1.036858621940348</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9908467043210579</v>
+        <v>1.028251991319613</v>
       </c>
       <c r="D21">
-        <v>1.011096663367728</v>
+        <v>1.032565893976195</v>
       </c>
       <c r="E21">
-        <v>0.999550473097164</v>
+        <v>1.048483357610187</v>
       </c>
       <c r="F21">
-        <v>1.006119949729269</v>
+        <v>1.054028897514136</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039990873641648</v>
+        <v>1.036192967106337</v>
       </c>
       <c r="J21">
-        <v>1.020732169401172</v>
+        <v>1.03489406696</v>
       </c>
       <c r="K21">
-        <v>1.025870812175303</v>
+        <v>1.036158859537869</v>
       </c>
       <c r="L21">
-        <v>1.014540366911227</v>
+        <v>1.052017648839569</v>
       </c>
       <c r="M21">
-        <v>1.020986298037947</v>
+        <v>1.057543206554852</v>
       </c>
       <c r="N21">
-        <v>1.022181726161338</v>
+        <v>1.036363735239092</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9878272902839026</v>
+        <v>1.027690648627259</v>
       </c>
       <c r="D22">
-        <v>1.009010169339039</v>
+        <v>1.03215936566267</v>
       </c>
       <c r="E22">
-        <v>0.9960228221597425</v>
+        <v>1.047753840653772</v>
       </c>
       <c r="F22">
-        <v>1.002518167696724</v>
+        <v>1.053290710031975</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039111330388299</v>
+        <v>1.036064653401034</v>
       </c>
       <c r="J22">
-        <v>1.019111211842473</v>
+        <v>1.034583147647925</v>
       </c>
       <c r="K22">
-        <v>1.024405221529385</v>
+        <v>1.035883389036893</v>
       </c>
       <c r="L22">
-        <v>1.011673481606949</v>
+        <v>1.051418098326142</v>
       </c>
       <c r="M22">
-        <v>1.01803990370848</v>
+        <v>1.056934219115764</v>
       </c>
       <c r="N22">
-        <v>1.020558466656979</v>
+        <v>1.036052374385931</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9894341511305349</v>
+        <v>1.02798817646711</v>
       </c>
       <c r="D23">
-        <v>1.010120079387007</v>
+        <v>1.032374830966688</v>
       </c>
       <c r="E23">
-        <v>0.9978997286992407</v>
+        <v>1.04814043995353</v>
       </c>
       <c r="F23">
-        <v>1.004434633832108</v>
+        <v>1.053681918883553</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039580167084043</v>
+        <v>1.036132767408551</v>
       </c>
       <c r="J23">
-        <v>1.019974110555898</v>
+        <v>1.034747990985548</v>
       </c>
       <c r="K23">
-        <v>1.025185455582214</v>
+        <v>1.036029450722708</v>
       </c>
       <c r="L23">
-        <v>1.013199128339466</v>
+        <v>1.051735861460518</v>
       </c>
       <c r="M23">
-        <v>1.019607961013013</v>
+        <v>1.057256997902693</v>
       </c>
       <c r="N23">
-        <v>1.021422590785553</v>
+        <v>1.036217451820001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9956255449367515</v>
+        <v>1.029160627757983</v>
       </c>
       <c r="D24">
-        <v>1.014406666955687</v>
+        <v>1.033224042866424</v>
       </c>
       <c r="E24">
-        <v>1.005141308044798</v>
+        <v>1.049665354505283</v>
       </c>
       <c r="F24">
-        <v>1.011826235228344</v>
+        <v>1.055224688868585</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041369757764997</v>
+        <v>1.036398871426256</v>
       </c>
       <c r="J24">
-        <v>1.023293032039863</v>
+        <v>1.03539653337039</v>
       </c>
       <c r="K24">
-        <v>1.028185422258003</v>
+        <v>1.036603820125858</v>
       </c>
       <c r="L24">
-        <v>1.019078734137718</v>
+        <v>1.052988411086934</v>
       </c>
       <c r="M24">
-        <v>1.025648803805637</v>
+        <v>1.058529005680228</v>
       </c>
       <c r="N24">
-        <v>1.024746225518711</v>
+        <v>1.036866915209418</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002549998899454</v>
+        <v>1.030523437694394</v>
       </c>
       <c r="D25">
-        <v>1.019219219965827</v>
+        <v>1.034211402273196</v>
       </c>
       <c r="E25">
-        <v>1.013262258643016</v>
+        <v>1.051440921047433</v>
       </c>
       <c r="F25">
-        <v>1.020109876957683</v>
+        <v>1.057020367723815</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043335584519938</v>
+        <v>1.036703392076119</v>
       </c>
       <c r="J25">
-        <v>1.02699184910625</v>
+        <v>1.036148198435192</v>
       </c>
       <c r="K25">
-        <v>1.031526332478391</v>
+        <v>1.037268932451497</v>
       </c>
       <c r="L25">
-        <v>1.025658125438945</v>
+        <v>1.054445093263997</v>
       </c>
       <c r="M25">
-        <v>1.03240383250485</v>
+        <v>1.060007667510912</v>
       </c>
       <c r="N25">
-        <v>1.028450295329593</v>
+        <v>1.03761964772483</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_123/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031612165222644</v>
+        <v>1.007880019272243</v>
       </c>
       <c r="D2">
-        <v>1.035000385883583</v>
+        <v>1.022936554731414</v>
       </c>
       <c r="E2">
-        <v>1.05286190050676</v>
+        <v>1.019532888118037</v>
       </c>
       <c r="F2">
-        <v>1.058456895271841</v>
+        <v>1.026501485276947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036942804332752</v>
+        <v>1.044819080773897</v>
       </c>
       <c r="J2">
-        <v>1.03674693247731</v>
+        <v>1.029827567961132</v>
       </c>
       <c r="K2">
-        <v>1.037798245945326</v>
+        <v>1.034085333952488</v>
       </c>
       <c r="L2">
-        <v>1.055609461016022</v>
+        <v>1.030726643989282</v>
       </c>
       <c r="M2">
-        <v>1.061189078089102</v>
+        <v>1.037603557472075</v>
       </c>
       <c r="N2">
-        <v>1.038219232037962</v>
+        <v>1.031290041230512</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032403668127144</v>
+        <v>1.011645953585552</v>
       </c>
       <c r="D3">
-        <v>1.03557408002459</v>
+        <v>1.025569670470106</v>
       </c>
       <c r="E3">
-        <v>1.053896420698908</v>
+        <v>1.023975702662072</v>
       </c>
       <c r="F3">
-        <v>1.059502416974296</v>
+        <v>1.031027234718028</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037114613741736</v>
+        <v>1.045849519639062</v>
       </c>
       <c r="J3">
-        <v>1.037181187676111</v>
+        <v>1.031824095571166</v>
       </c>
       <c r="K3">
-        <v>1.038181871538795</v>
+        <v>1.035885510823637</v>
       </c>
       <c r="L3">
-        <v>1.056456343054939</v>
+        <v>1.034310732121572</v>
       </c>
       <c r="M3">
-        <v>1.062048049716418</v>
+        <v>1.041277930611343</v>
       </c>
       <c r="N3">
-        <v>1.038654103928957</v>
+        <v>1.033289404138755</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032916272654825</v>
+        <v>1.014036953791718</v>
       </c>
       <c r="D4">
-        <v>1.035945669075827</v>
+        <v>1.027244242274499</v>
       </c>
       <c r="E4">
-        <v>1.054567097668239</v>
+        <v>1.026802439223261</v>
       </c>
       <c r="F4">
-        <v>1.060180078957954</v>
+        <v>1.033905422822164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037224845135928</v>
+        <v>1.046495359490667</v>
       </c>
       <c r="J4">
-        <v>1.037461951801176</v>
+        <v>1.033088283133937</v>
       </c>
       <c r="K4">
-        <v>1.038429771178846</v>
+        <v>1.037024607394359</v>
       </c>
       <c r="L4">
-        <v>1.057004997429771</v>
+        <v>1.036587796142743</v>
       </c>
       <c r="M4">
-        <v>1.062604394332658</v>
+        <v>1.043611161401661</v>
       </c>
       <c r="N4">
-        <v>1.038935266771282</v>
+        <v>1.034555386992869</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033131877579069</v>
+        <v>1.015031496325178</v>
       </c>
       <c r="D5">
-        <v>1.03610197219917</v>
+        <v>1.027941418398704</v>
       </c>
       <c r="E5">
-        <v>1.054849354002281</v>
+        <v>1.027979705615496</v>
       </c>
       <c r="F5">
-        <v>1.060465239698899</v>
+        <v>1.035103797719738</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03727096056853</v>
+        <v>1.046761958280826</v>
       </c>
       <c r="J5">
-        <v>1.037579929350078</v>
+        <v>1.033613284665251</v>
       </c>
       <c r="K5">
-        <v>1.038533907669481</v>
+        <v>1.037497468541934</v>
       </c>
       <c r="L5">
-        <v>1.057235809983088</v>
+        <v>1.03753533488862</v>
       </c>
       <c r="M5">
-        <v>1.062838408032877</v>
+        <v>1.044581780394603</v>
       </c>
       <c r="N5">
-        <v>1.039053411861836</v>
+        <v>1.035081134086577</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033168084763898</v>
+        <v>1.01519787023276</v>
       </c>
       <c r="D6">
-        <v>1.036128221240632</v>
+        <v>1.02805808297167</v>
       </c>
       <c r="E6">
-        <v>1.054896763862814</v>
+        <v>1.028176734931452</v>
       </c>
       <c r="F6">
-        <v>1.060513135337692</v>
+        <v>1.035304340879687</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037278690290889</v>
+        <v>1.046806436061569</v>
       </c>
       <c r="J6">
-        <v>1.037599735002065</v>
+        <v>1.033701060499531</v>
       </c>
       <c r="K6">
-        <v>1.038551387891131</v>
+        <v>1.037576515429165</v>
       </c>
       <c r="L6">
-        <v>1.057274573678614</v>
+        <v>1.037693869182428</v>
       </c>
       <c r="M6">
-        <v>1.062877707345514</v>
+        <v>1.044744158956936</v>
       </c>
       <c r="N6">
-        <v>1.039073245640121</v>
+        <v>1.035169034572609</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032919153163898</v>
+        <v>1.014050284270348</v>
       </c>
       <c r="D7">
-        <v>1.035947757265676</v>
+        <v>1.027253584511118</v>
       </c>
       <c r="E7">
-        <v>1.05457086799905</v>
+        <v>1.026818212971836</v>
       </c>
       <c r="F7">
-        <v>1.060183888223804</v>
+        <v>1.033921480663179</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037225462220785</v>
+        <v>1.046498940973258</v>
       </c>
       <c r="J7">
-        <v>1.037463528443156</v>
+        <v>1.033095323406812</v>
       </c>
       <c r="K7">
-        <v>1.03843116297348</v>
+        <v>1.037030949232956</v>
       </c>
       <c r="L7">
-        <v>1.057008080937772</v>
+        <v>1.036600495035869</v>
       </c>
       <c r="M7">
-        <v>1.062607520739742</v>
+        <v>1.043624170776124</v>
       </c>
       <c r="N7">
-        <v>1.038936845652275</v>
+        <v>1.03456243726374</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031879563379807</v>
+        <v>1.009162425321824</v>
       </c>
       <c r="D8">
-        <v>1.035194190793469</v>
+        <v>1.023832594068293</v>
       </c>
       <c r="E8">
-        <v>1.053211257169191</v>
+        <v>1.021044563841029</v>
       </c>
       <c r="F8">
-        <v>1.058809997577962</v>
+        <v>1.028041652389333</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037001062548586</v>
+        <v>1.045171714339898</v>
       </c>
       <c r="J8">
-        <v>1.036893737608318</v>
+        <v>1.030508142926453</v>
       </c>
       <c r="K8">
-        <v>1.037927962050159</v>
+        <v>1.034699131888163</v>
       </c>
       <c r="L8">
-        <v>1.055895530478439</v>
+        <v>1.031946823159302</v>
       </c>
       <c r="M8">
-        <v>1.061479260664259</v>
+        <v>1.038854719997067</v>
       </c>
       <c r="N8">
-        <v>1.038366245649095</v>
+        <v>1.031971582690345</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030051183035836</v>
+        <v>1.000182796784476</v>
       </c>
       <c r="D9">
-        <v>1.033869220628918</v>
+        <v>1.017571836968276</v>
       </c>
       <c r="E9">
-        <v>1.050825248334661</v>
+        <v>1.010483060798355</v>
       </c>
       <c r="F9">
-        <v>1.05639780569454</v>
+        <v>1.01727571987594</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036598463863935</v>
+        <v>1.042668146394773</v>
       </c>
       <c r="J9">
-        <v>1.035887995535379</v>
+        <v>1.02572910167694</v>
       </c>
       <c r="K9">
-        <v>1.037038764986163</v>
+        <v>1.030386114293827</v>
       </c>
       <c r="L9">
-        <v>1.053940210764853</v>
+        <v>1.023408316841509</v>
       </c>
       <c r="M9">
-        <v>1.059495248109468</v>
+        <v>1.030094593524408</v>
       </c>
       <c r="N9">
-        <v>1.037359075307053</v>
+        <v>1.027185754654093</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028834715474509</v>
+        <v>0.9939266743363695</v>
       </c>
       <c r="D10">
-        <v>1.032987961035508</v>
+        <v>1.013228893305729</v>
       </c>
       <c r="E10">
-        <v>1.049241227628437</v>
+        <v>1.003152620314337</v>
       </c>
       <c r="F10">
-        <v>1.054795648821491</v>
+        <v>1.00979678151193</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036325275773024</v>
+        <v>1.040881504476377</v>
       </c>
       <c r="J10">
-        <v>1.035216424661276</v>
+        <v>1.022383344086751</v>
       </c>
       <c r="K10">
-        <v>1.03644435590149</v>
+        <v>1.027363334463306</v>
       </c>
       <c r="L10">
-        <v>1.052640174500714</v>
+        <v>1.017465185577038</v>
       </c>
       <c r="M10">
-        <v>1.058175410034875</v>
+        <v>1.023991376609476</v>
       </c>
       <c r="N10">
-        <v>1.036686550725279</v>
+        <v>1.023835245704363</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028308572834153</v>
+        <v>0.9911481756820337</v>
       </c>
       <c r="D11">
-        <v>1.032606873564321</v>
+        <v>1.011305196033875</v>
       </c>
       <c r="E11">
-        <v>1.048556919978159</v>
+        <v>0.9999028813660499</v>
       </c>
       <c r="F11">
-        <v>1.054103327616705</v>
+        <v>1.006479710928986</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036205854193634</v>
+        <v>1.040078349340421</v>
       </c>
       <c r="J11">
-        <v>1.034925385540147</v>
+        <v>1.020893894404635</v>
       </c>
       <c r="K11">
-        <v>1.036186601752237</v>
+        <v>1.02601701633962</v>
       </c>
       <c r="L11">
-        <v>1.052078088740697</v>
+        <v>1.014826629434635</v>
       </c>
       <c r="M11">
-        <v>1.057604591491191</v>
+        <v>1.021280455278404</v>
       </c>
       <c r="N11">
-        <v>1.036395098295215</v>
+        <v>1.022343680832856</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028113231107927</v>
+        <v>0.9901051608371916</v>
       </c>
       <c r="D12">
-        <v>1.032465398051889</v>
+        <v>1.010583885892085</v>
       </c>
       <c r="E12">
-        <v>1.048302976610783</v>
+        <v>0.9986837908397832</v>
       </c>
       <c r="F12">
-        <v>1.053846383634923</v>
+        <v>1.005235142862421</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03616132663969</v>
+        <v>1.039775436890748</v>
       </c>
       <c r="J12">
-        <v>1.034817245013729</v>
+        <v>1.020334272907645</v>
       </c>
       <c r="K12">
-        <v>1.036090805724007</v>
+        <v>1.025511086157637</v>
       </c>
       <c r="L12">
-        <v>1.05186943195121</v>
+        <v>1.013836250857987</v>
       </c>
       <c r="M12">
-        <v>1.05739266725332</v>
+        <v>1.020262728413326</v>
       </c>
       <c r="N12">
-        <v>1.036286804196845</v>
+        <v>1.02178326460915</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028155128424842</v>
+        <v>0.9903293953586519</v>
       </c>
       <c r="D13">
-        <v>1.032495741503042</v>
+        <v>1.010738920048504</v>
       </c>
       <c r="E13">
-        <v>1.048357437495108</v>
+        <v>0.9989458432159568</v>
       </c>
       <c r="F13">
-        <v>1.053901489246954</v>
+        <v>1.005502681619574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036170885591809</v>
+        <v>1.039840622605114</v>
       </c>
       <c r="J13">
-        <v>1.034840443118861</v>
+        <v>1.020454606332122</v>
       </c>
       <c r="K13">
-        <v>1.036111356753237</v>
+        <v>1.025619878260745</v>
       </c>
       <c r="L13">
-        <v>1.051914183784196</v>
+        <v>1.014049165211758</v>
       </c>
       <c r="M13">
-        <v>1.057438121036041</v>
+        <v>1.020481530455206</v>
       </c>
       <c r="N13">
-        <v>1.036310035245948</v>
+        <v>1.021903768920893</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028292423959164</v>
+        <v>0.9910621863037681</v>
       </c>
       <c r="D14">
-        <v>1.032595177566985</v>
+        <v>1.011245711941266</v>
       </c>
       <c r="E14">
-        <v>1.048535924059503</v>
+        <v>0.9998023594187011</v>
       </c>
       <c r="F14">
-        <v>1.0540820841559</v>
+        <v>1.006377092611489</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03620217697743</v>
+        <v>1.040053404925492</v>
       </c>
       <c r="J14">
-        <v>1.034916447331175</v>
+        <v>1.020847767475951</v>
       </c>
       <c r="K14">
-        <v>1.036178684331409</v>
+        <v>1.025975316625109</v>
       </c>
       <c r="L14">
-        <v>1.052060838511608</v>
+        <v>1.014744977669751</v>
       </c>
       <c r="M14">
-        <v>1.057587071656743</v>
+        <v>1.021196552520264</v>
       </c>
       <c r="N14">
-        <v>1.036386147392961</v>
+        <v>1.022297488398642</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028377028384413</v>
+        <v>0.9915122154341049</v>
       </c>
       <c r="D15">
-        <v>1.032656453705975</v>
+        <v>1.01155705838769</v>
       </c>
       <c r="E15">
-        <v>1.048645927218129</v>
+        <v>1.000328478525606</v>
       </c>
       <c r="F15">
-        <v>1.054193383154421</v>
+        <v>1.006914174954318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036221434248689</v>
+        <v>1.040183894991047</v>
       </c>
       <c r="J15">
-        <v>1.034963271345178</v>
+        <v>1.021089154528956</v>
       </c>
       <c r="K15">
-        <v>1.036220159863991</v>
+        <v>1.02619353213871</v>
       </c>
       <c r="L15">
-        <v>1.052151214170704</v>
+        <v>1.015172309709079</v>
       </c>
       <c r="M15">
-        <v>1.057678858753624</v>
+        <v>1.021635657799468</v>
       </c>
       <c r="N15">
-        <v>1.036433037902435</v>
+        <v>1.02253921824895</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028869646515414</v>
+        <v>0.9941095661258269</v>
       </c>
       <c r="D16">
-        <v>1.033013263311046</v>
+        <v>1.013355629864504</v>
       </c>
       <c r="E16">
-        <v>1.049286676328508</v>
+        <v>1.003366648643608</v>
       </c>
       <c r="F16">
-        <v>1.054841625981109</v>
+        <v>1.010015213534158</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036333177647998</v>
+        <v>1.040934172644969</v>
       </c>
       <c r="J16">
-        <v>1.035235734911358</v>
+        <v>1.022481314596759</v>
       </c>
       <c r="K16">
-        <v>1.036461454470187</v>
+        <v>1.027451877686714</v>
       </c>
       <c r="L16">
-        <v>1.052677496025656</v>
+        <v>1.017638882230234</v>
       </c>
       <c r="M16">
-        <v>1.058213307796066</v>
+        <v>1.024169810791057</v>
       </c>
       <c r="N16">
-        <v>1.03670588839813</v>
+        <v>1.023933355343732</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029178813477369</v>
+        <v>0.9957198453430196</v>
       </c>
       <c r="D17">
-        <v>1.033237216590038</v>
+        <v>1.014472076897586</v>
       </c>
       <c r="E17">
-        <v>1.049689026054351</v>
+        <v>1.005251735168202</v>
       </c>
       <c r="F17">
-        <v>1.055248633414312</v>
+        <v>1.011938915890587</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036402969403839</v>
+        <v>1.041396794553805</v>
       </c>
       <c r="J17">
-        <v>1.035406579421274</v>
+        <v>1.023343503075788</v>
       </c>
       <c r="K17">
-        <v>1.036612713620499</v>
+        <v>1.028231028721452</v>
       </c>
       <c r="L17">
-        <v>1.053007843865707</v>
+        <v>1.019168304799297</v>
       </c>
       <c r="M17">
-        <v>1.058548736344132</v>
+        <v>1.025740801542533</v>
       </c>
       <c r="N17">
-        <v>1.036876975526847</v>
+        <v>1.024796768229296</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029359202720999</v>
+        <v>0.996652418611255</v>
       </c>
       <c r="D18">
-        <v>1.03336789324196</v>
+        <v>1.015119135441334</v>
       </c>
       <c r="E18">
-        <v>1.049923862584152</v>
+        <v>1.006344023858544</v>
       </c>
       <c r="F18">
-        <v>1.055486171216767</v>
+        <v>1.013053436947136</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036443568749121</v>
+        <v>1.041663795643556</v>
       </c>
       <c r="J18">
-        <v>1.0355062064692</v>
+        <v>1.023842492811661</v>
       </c>
       <c r="K18">
-        <v>1.036700904645475</v>
+        <v>1.0286818982553</v>
       </c>
       <c r="L18">
-        <v>1.053200611015508</v>
+        <v>1.020054142392809</v>
       </c>
       <c r="M18">
-        <v>1.058744451687981</v>
+        <v>1.026650591920872</v>
       </c>
       <c r="N18">
-        <v>1.036976744056608</v>
+        <v>1.025296466587829</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029420720477576</v>
+        <v>0.9969692846192421</v>
       </c>
       <c r="D19">
-        <v>1.03341245877803</v>
+        <v>1.015339070571862</v>
       </c>
       <c r="E19">
-        <v>1.050003961648869</v>
+        <v>1.00671525485086</v>
       </c>
       <c r="F19">
-        <v>1.05556718871579</v>
+        <v>1.013432199500957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036457393569068</v>
+        <v>1.041754359031314</v>
       </c>
       <c r="J19">
-        <v>1.035540172670764</v>
+        <v>1.024011979713129</v>
       </c>
       <c r="K19">
-        <v>1.036730969387124</v>
+        <v>1.028835029723572</v>
       </c>
       <c r="L19">
-        <v>1.053266353316943</v>
+        <v>1.020355145321248</v>
       </c>
       <c r="M19">
-        <v>1.058811196649589</v>
+        <v>1.026959712712597</v>
       </c>
       <c r="N19">
-        <v>1.037010758494075</v>
+        <v>1.025466194180138</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029145636841381</v>
+        <v>0.9955477716489128</v>
       </c>
       <c r="D20">
-        <v>1.033213183494805</v>
+        <v>1.014352723499485</v>
       </c>
       <c r="E20">
-        <v>1.049645841930366</v>
+        <v>1.005050237612837</v>
       </c>
       <c r="F20">
-        <v>1.055204951163913</v>
+        <v>1.011733305468893</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036395492679467</v>
+        <v>1.041347454240256</v>
       </c>
       <c r="J20">
-        <v>1.035388251862012</v>
+        <v>1.023251404668786</v>
       </c>
       <c r="K20">
-        <v>1.036596488648349</v>
+        <v>1.028147806721583</v>
       </c>
       <c r="L20">
-        <v>1.052972392300208</v>
+        <v>1.019004862180377</v>
       </c>
       <c r="M20">
-        <v>1.058512741248231</v>
+        <v>1.025572929458091</v>
       </c>
       <c r="N20">
-        <v>1.036858621940348</v>
+        <v>1.024704539031992</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028251991319613</v>
+        <v>0.9908467043210577</v>
       </c>
       <c r="D21">
-        <v>1.032565893976195</v>
+        <v>1.011096663367728</v>
       </c>
       <c r="E21">
-        <v>1.048483357610187</v>
+        <v>0.999550473097164</v>
       </c>
       <c r="F21">
-        <v>1.054028897514136</v>
+        <v>1.006119949729268</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036192967106337</v>
+        <v>1.039990873641647</v>
       </c>
       <c r="J21">
-        <v>1.03489406696</v>
+        <v>1.020732169401172</v>
       </c>
       <c r="K21">
-        <v>1.036158859537869</v>
+        <v>1.025870812175303</v>
       </c>
       <c r="L21">
-        <v>1.052017648839569</v>
+        <v>1.014540366911227</v>
       </c>
       <c r="M21">
-        <v>1.057543206554852</v>
+        <v>1.020986298037947</v>
       </c>
       <c r="N21">
-        <v>1.036363735239092</v>
+        <v>1.022181726161338</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027690648627259</v>
+        <v>0.9878272902839029</v>
       </c>
       <c r="D22">
-        <v>1.03215936566267</v>
+        <v>1.009010169339039</v>
       </c>
       <c r="E22">
-        <v>1.047753840653772</v>
+        <v>0.9960228221597425</v>
       </c>
       <c r="F22">
-        <v>1.053290710031975</v>
+        <v>1.002518167696724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036064653401034</v>
+        <v>1.0391113303883</v>
       </c>
       <c r="J22">
-        <v>1.034583147647925</v>
+        <v>1.019111211842473</v>
       </c>
       <c r="K22">
-        <v>1.035883389036893</v>
+        <v>1.024405221529385</v>
       </c>
       <c r="L22">
-        <v>1.051418098326142</v>
+        <v>1.011673481606949</v>
       </c>
       <c r="M22">
-        <v>1.056934219115764</v>
+        <v>1.01803990370848</v>
       </c>
       <c r="N22">
-        <v>1.036052374385931</v>
+        <v>1.020558466656979</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02798817646711</v>
+        <v>0.9894341511305353</v>
       </c>
       <c r="D23">
-        <v>1.032374830966688</v>
+        <v>1.010120079387007</v>
       </c>
       <c r="E23">
-        <v>1.04814043995353</v>
+        <v>0.9978997286992412</v>
       </c>
       <c r="F23">
-        <v>1.053681918883553</v>
+        <v>1.004434633832109</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036132767408551</v>
+        <v>1.039580167084043</v>
       </c>
       <c r="J23">
-        <v>1.034747990985548</v>
+        <v>1.019974110555899</v>
       </c>
       <c r="K23">
-        <v>1.036029450722708</v>
+        <v>1.025185455582214</v>
       </c>
       <c r="L23">
-        <v>1.051735861460518</v>
+        <v>1.013199128339467</v>
       </c>
       <c r="M23">
-        <v>1.057256997902693</v>
+        <v>1.019607961013014</v>
       </c>
       <c r="N23">
-        <v>1.036217451820001</v>
+        <v>1.021422590785554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029160627757983</v>
+        <v>0.9956255449367514</v>
       </c>
       <c r="D24">
-        <v>1.033224042866424</v>
+        <v>1.014406666955687</v>
       </c>
       <c r="E24">
-        <v>1.049665354505283</v>
+        <v>1.005141308044797</v>
       </c>
       <c r="F24">
-        <v>1.055224688868585</v>
+        <v>1.011826235228344</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036398871426256</v>
+        <v>1.041369757764997</v>
       </c>
       <c r="J24">
-        <v>1.03539653337039</v>
+        <v>1.023293032039863</v>
       </c>
       <c r="K24">
-        <v>1.036603820125858</v>
+        <v>1.028185422258003</v>
       </c>
       <c r="L24">
-        <v>1.052988411086934</v>
+        <v>1.019078734137718</v>
       </c>
       <c r="M24">
-        <v>1.058529005680228</v>
+        <v>1.025648803805636</v>
       </c>
       <c r="N24">
-        <v>1.036866915209418</v>
+        <v>1.024746225518711</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030523437694394</v>
+        <v>1.002549998899454</v>
       </c>
       <c r="D25">
-        <v>1.034211402273196</v>
+        <v>1.019219219965827</v>
       </c>
       <c r="E25">
-        <v>1.051440921047433</v>
+        <v>1.013262258643016</v>
       </c>
       <c r="F25">
-        <v>1.057020367723815</v>
+        <v>1.020109876957683</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036703392076119</v>
+        <v>1.043335584519938</v>
       </c>
       <c r="J25">
-        <v>1.036148198435192</v>
+        <v>1.026991849106249</v>
       </c>
       <c r="K25">
-        <v>1.037268932451497</v>
+        <v>1.03152633247839</v>
       </c>
       <c r="L25">
-        <v>1.054445093263997</v>
+        <v>1.025658125438945</v>
       </c>
       <c r="M25">
-        <v>1.060007667510912</v>
+        <v>1.03240383250485</v>
       </c>
       <c r="N25">
-        <v>1.03761964772483</v>
+        <v>1.028450295329592</v>
       </c>
     </row>
   </sheetData>
